--- a/reference/OffsetChart.xlsx
+++ b/reference/OffsetChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skylar\Documents\01_Personal_Docs\Git\SARDINE\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D05A24-BDBA-42CE-AE1B-035DDF46D27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B5DAB-BC3E-49F9-AA13-B05C94ACFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52755" yWindow="5985" windowWidth="27450" windowHeight="16035" xr2:uid="{3D5F0E6F-13C2-4949-96E5-89AC88D6E121}"/>
+    <workbookView xWindow="52755" yWindow="4845" windowWidth="27450" windowHeight="16035" xr2:uid="{3D5F0E6F-13C2-4949-96E5-89AC88D6E121}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Straight Rail</t>
   </si>
@@ -107,7 +107,10 @@
     <t>X -Y</t>
   </si>
   <si>
-    <t>Value polarity is based by quadrant of direction. Singular values are based on axis of  movement. Format is X Y.  Cells that contain four numbers and a slash are multiple offsets to check, for example X Y / X Y.</t>
+    <t>2 4 / 4 2 / 4 4</t>
+  </si>
+  <si>
+    <t>Value polarity is based by quadrant of direction. Singular values are based on axis of  movement. Format is X Y.  Cells that contain multiple sets of numbers seperated by slashes are multiple offsets to check, for example X Y / X Y.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,9 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,86 +399,50 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -824,42 +788,42 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -877,171 +841,171 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="19">
         <v>9</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="15">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="G6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <v>9</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
         <v>16</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -1056,19 +1020,9 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F6">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="B2:G7">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
